--- a/Exp_colectivo/registro_experimento.xlsx
+++ b/Exp_colectivo/registro_experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Exp_colectivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467250A1-16E6-4468-AD34-5C871A66E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430170B8-820B-425A-B497-873FC30D1355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
+    <comment ref="BR3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
       <text>
         <r>
           <rPr>
@@ -74,22 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
-  <si>
-    <t>AD10</t>
-  </si>
-  <si>
-    <t>AD9</t>
-  </si>
-  <si>
-    <t>AD8</t>
-  </si>
-  <si>
-    <t>AD7</t>
-  </si>
-  <si>
-    <t>AD6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>AD5</t>
   </si>
@@ -314,6 +299,9 @@
   </si>
   <si>
     <t>Corte</t>
+  </si>
+  <si>
+    <t>TS N°</t>
   </si>
 </sst>
 </file>
@@ -405,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,8 +470,14 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -660,13 +654,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,7 +792,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,7 +804,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,67 +829,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -872,47 +846,118 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1230,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
-  <dimension ref="A1:CA14"/>
+  <dimension ref="A1:CB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BM3" sqref="BM3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,465 +1308,471 @@
     <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="39" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="51" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="59" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.42578125" customWidth="1"/>
-    <col min="62" max="62" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="12.28515625" customWidth="1"/>
-    <col min="68" max="68" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1"/>
+    <col min="32" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="60" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.42578125" customWidth="1"/>
+    <col min="63" max="63" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="12.28515625" customWidth="1"/>
+    <col min="69" max="69" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:80" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="91"/>
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="91"/>
+      <c r="BM1" s="91"/>
+      <c r="BN1" s="91"/>
+      <c r="BO1" s="91"/>
+      <c r="BP1" s="91"/>
+      <c r="BQ1" s="91"/>
+      <c r="BR1" s="91"/>
+      <c r="BS1" s="91"/>
+      <c r="BT1" s="91"/>
+      <c r="BU1" s="91"/>
+      <c r="BV1" s="91"/>
+      <c r="BW1" s="91"/>
+      <c r="BX1" s="91"/>
+      <c r="BY1" s="91"/>
+      <c r="BZ1" s="91"/>
+      <c r="CA1" s="92"/>
+    </row>
+    <row r="2" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="73"/>
-      <c r="BQ1" s="73"/>
-      <c r="BR1" s="73"/>
-      <c r="BS1" s="73"/>
-      <c r="BT1" s="73"/>
-      <c r="BU1" s="73"/>
-      <c r="BV1" s="73"/>
-      <c r="BW1" s="73"/>
-      <c r="BX1" s="73"/>
-      <c r="BY1" s="73"/>
-      <c r="BZ1" s="72"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR2" s="89"/>
+      <c r="BS2" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="74"/>
+      <c r="BV2" s="74"/>
+      <c r="BW2" s="74"/>
+      <c r="BX2" s="74"/>
+      <c r="BY2" s="74"/>
+      <c r="BZ2" s="74"/>
+      <c r="CA2" s="87"/>
     </row>
-    <row r="2" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="3" spans="1:80" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="45">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="45">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="45">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="45">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="45">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="45">
+        <v>7</v>
+      </c>
+      <c r="AM3" s="45">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="45">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="45">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="45">
+        <v>11</v>
+      </c>
+      <c r="AQ3" s="45">
+        <v>12</v>
+      </c>
+      <c r="AR3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AU3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="44">
+        <v>5</v>
+      </c>
+      <c r="AW3" s="44">
+        <v>6</v>
+      </c>
+      <c r="AX3" s="44">
+        <v>7</v>
+      </c>
+      <c r="AY3" s="44">
+        <v>8</v>
+      </c>
+      <c r="AZ3" s="44">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="44">
+        <v>10</v>
+      </c>
+      <c r="BB3" s="44">
+        <v>11</v>
+      </c>
+      <c r="BC3" s="44">
+        <v>12</v>
+      </c>
+      <c r="BD3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BG3" s="43">
+        <v>4</v>
+      </c>
+      <c r="BH3" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="51" t="s">
+      <c r="BK3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM3" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN3" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="85"/>
-      <c r="BN2" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO2" s="95"/>
-      <c r="BP2" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="BQ2" s="95"/>
-      <c r="BR2" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="48"/>
-      <c r="BU2" s="48"/>
-      <c r="BV2" s="48"/>
-      <c r="BW2" s="48"/>
-      <c r="BX2" s="48"/>
-      <c r="BY2" s="48"/>
-      <c r="BZ2" s="42"/>
+      <c r="BP3" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="BT3" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB3" s="69" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="46">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="46">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="46">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="46">
-        <v>4</v>
-      </c>
-      <c r="AI3" s="46">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="46">
-        <v>6</v>
-      </c>
-      <c r="AK3" s="46">
-        <v>7</v>
-      </c>
-      <c r="AL3" s="46">
-        <v>8</v>
-      </c>
-      <c r="AM3" s="46">
+    <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>9</v>
-      </c>
-      <c r="AN3" s="46">
-        <v>10</v>
-      </c>
-      <c r="AO3" s="46">
-        <v>11</v>
-      </c>
-      <c r="AP3" s="46">
-        <v>12</v>
-      </c>
-      <c r="AQ3" s="45">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="45">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="45">
-        <v>4</v>
-      </c>
-      <c r="AU3" s="45">
-        <v>5</v>
-      </c>
-      <c r="AV3" s="45">
-        <v>6</v>
-      </c>
-      <c r="AW3" s="45">
-        <v>7</v>
-      </c>
-      <c r="AX3" s="45">
-        <v>8</v>
-      </c>
-      <c r="AY3" s="45">
-        <v>9</v>
-      </c>
-      <c r="AZ3" s="45">
-        <v>10</v>
-      </c>
-      <c r="BA3" s="45">
-        <v>11</v>
-      </c>
-      <c r="BB3" s="45">
-        <v>12</v>
-      </c>
-      <c r="BC3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="44">
-        <v>2</v>
-      </c>
-      <c r="BE3" s="44">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="44">
-        <v>4</v>
-      </c>
-      <c r="BG3" s="43">
-        <v>5</v>
-      </c>
-      <c r="BH3" s="87"/>
-      <c r="BI3" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK3" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="BL3" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM3" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN3" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO3" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="BQ3" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="BR3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="BT3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="BU3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="BV3" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="BX3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="BY3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="BZ3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="CA3" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -1747,7 +1798,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -1772,21 +1823,21 @@
         <v>1223</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" s="31"/>
+      <c r="AD4" s="100">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="AF4" s="31"/>
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
-      <c r="AI4" s="31">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="31"/>
       <c r="AJ4" s="31">
         <v>1</v>
       </c>
@@ -1808,8 +1859,8 @@
       <c r="AP4" s="31">
         <v>1</v>
       </c>
-      <c r="AQ4" s="30">
-        <v>0</v>
+      <c r="AQ4" s="31">
+        <v>1</v>
       </c>
       <c r="AR4" s="30">
         <v>0</v>
@@ -1839,12 +1890,12 @@
         <v>0</v>
       </c>
       <c r="BA4" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="30">
         <v>1</v>
       </c>
-      <c r="BC4" s="29">
+      <c r="BC4" s="30">
         <v>1</v>
       </c>
       <c r="BD4" s="29">
@@ -1853,63 +1904,62 @@
       <c r="BE4" s="29">
         <v>1</v>
       </c>
-      <c r="BF4" s="29"/>
+      <c r="BF4" s="29">
+        <v>1</v>
+      </c>
       <c r="BG4" s="29"/>
-      <c r="BH4" s="88">
-        <f>SUM(AE4:BG4)</f>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="65">
+        <f>SUM(AF4:BH4)</f>
         <v>13</v>
       </c>
-      <c r="BI4" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ4" s="90">
+      <c r="BJ4" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK4" s="28">
         <v>1223</v>
       </c>
-      <c r="BK4" s="28">
+      <c r="BL4" s="28">
         <v>758301</v>
       </c>
-      <c r="BL4" s="27">
-        <f>BK4*BJ4</f>
+      <c r="BM4" s="27">
+        <f>BL4*BK4</f>
         <v>927402123</v>
       </c>
-      <c r="BM4" s="90">
+      <c r="BN4" s="28">
         <v>936659</v>
       </c>
-      <c r="BN4" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="26">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="25">
+      <c r="BO4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="26">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="25">
         <v>72</v>
       </c>
-      <c r="BR4" s="24">
+      <c r="BS4" s="24">
         <v>4573</v>
       </c>
-      <c r="BS4" s="23">
+      <c r="BT4" s="23">
         <v>7.2723382536366201E-3</v>
       </c>
-      <c r="BT4" s="21"/>
-      <c r="BU4" s="22">
+      <c r="BU4" s="21"/>
+      <c r="BV4" s="22">
         <v>0.60417248985265604</v>
       </c>
-      <c r="BV4" s="21"/>
-      <c r="BZ4" s="20"/>
+      <c r="BW4" s="21"/>
+      <c r="CA4" s="20"/>
     </row>
-    <row r="5" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>49.075870000000002</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -1952,10 +2002,10 @@
       </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="33"/>
-      <c r="AD5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE5" s="16"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -1967,7 +2017,7 @@
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
       <c r="AP5" s="16"/>
-      <c r="AQ5" s="15"/>
+      <c r="AQ5" s="16"/>
       <c r="AR5" s="15"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="15"/>
@@ -1979,54 +2029,53 @@
       <c r="AZ5" s="15"/>
       <c r="BA5" s="15"/>
       <c r="BB5" s="15"/>
-      <c r="BC5" s="14"/>
+      <c r="BC5" s="15"/>
       <c r="BD5" s="14"/>
       <c r="BE5" s="14"/>
-      <c r="BF5" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="86">
-        <f>SUM(AE5:BG5)</f>
-        <v>1</v>
-      </c>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="90">
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="64">
+        <f>SUM(AF5:BH5)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="28">
         <v>1223</v>
       </c>
-      <c r="BK5" s="28">
+      <c r="BL5" s="28">
         <v>758301</v>
       </c>
-      <c r="BL5" s="27">
-        <f>BK5*BJ5</f>
+      <c r="BM5" s="27">
+        <f>BL5*BK5</f>
         <v>927402123</v>
       </c>
-      <c r="BM5" s="90"/>
-      <c r="BN5" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="26"/>
-      <c r="BQ5" s="25"/>
-      <c r="BR5" s="24"/>
-      <c r="BS5" s="23"/>
-      <c r="BT5" s="21"/>
-      <c r="BU5" s="22"/>
-      <c r="BV5" s="21"/>
-      <c r="BZ5" s="20"/>
+      <c r="BN5" s="28">
+        <v>936659</v>
+      </c>
+      <c r="BO5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="26"/>
+      <c r="BR5" s="25"/>
+      <c r="BS5" s="24"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="21"/>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="21"/>
+      <c r="CA5" s="20"/>
     </row>
-    <row r="6" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>49.075870000000002</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -2060,15 +2109,13 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="6">
-        <v>1223</v>
-      </c>
+      <c r="AA6" s="6"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="33"/>
-      <c r="AD6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="16"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -2080,7 +2127,7 @@
       <c r="AN6" s="16"/>
       <c r="AO6" s="16"/>
       <c r="AP6" s="16"/>
-      <c r="AQ6" s="15"/>
+      <c r="AQ6" s="16"/>
       <c r="AR6" s="15"/>
       <c r="AS6" s="15"/>
       <c r="AT6" s="15"/>
@@ -2092,47 +2139,46 @@
       <c r="AZ6" s="15"/>
       <c r="BA6" s="15"/>
       <c r="BB6" s="15"/>
-      <c r="BC6" s="14"/>
+      <c r="BC6" s="15"/>
       <c r="BD6" s="14"/>
       <c r="BE6" s="14"/>
       <c r="BF6" s="14"/>
-      <c r="BG6" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="86">
-        <f>SUM(AE6:BG6)</f>
-        <v>1</v>
-      </c>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="90"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="64">
+        <f>SUM(AF6:BH6)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="67"/>
       <c r="BK6" s="28"/>
-      <c r="BL6" s="27"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="26"/>
-      <c r="BQ6" s="25"/>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="23"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="22"/>
-      <c r="BV6" s="21"/>
-      <c r="BZ6" s="20"/>
+      <c r="BL6" s="28"/>
+      <c r="BM6" s="27"/>
+      <c r="BN6" s="28">
+        <v>936659</v>
+      </c>
+      <c r="BO6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="26"/>
+      <c r="BR6" s="25"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="23"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="21"/>
+      <c r="CA6" s="20"/>
     </row>
-    <row r="7" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>49.075870000000002</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
@@ -2170,21 +2216,17 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="6">
-        <v>1223</v>
-      </c>
+      <c r="AA7" s="6"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE7" s="4"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="4">
-        <v>1</v>
-      </c>
+      <c r="AI7" s="4"/>
       <c r="AJ7" s="4">
         <v>1</v>
       </c>
@@ -2206,8 +2248,8 @@
       <c r="AP7" s="4">
         <v>1</v>
       </c>
-      <c r="AQ7" s="3">
-        <v>0</v>
+      <c r="AQ7" s="4">
+        <v>1</v>
       </c>
       <c r="AR7" s="3">
         <v>0</v>
@@ -2237,12 +2279,12 @@
         <v>0</v>
       </c>
       <c r="BA7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="3">
         <v>1</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BC7" s="3">
         <v>1</v>
       </c>
       <c r="BD7" s="2">
@@ -2252,88 +2294,219 @@
         <v>1</v>
       </c>
       <c r="BF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="2">
         <v>0</v>
       </c>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="89">
-        <f>SUM(AE7:BG7)</f>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="66">
+        <f>SUM(AF7:BH7)</f>
         <v>13</v>
       </c>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="90"/>
+      <c r="BJ7" s="67"/>
       <c r="BK7" s="28"/>
-      <c r="BL7" s="27"/>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="25"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="23"/>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="21"/>
-      <c r="BZ7" s="20"/>
+      <c r="BL7" s="28"/>
+      <c r="BM7" s="27"/>
+      <c r="BN7" s="28">
+        <v>936659</v>
+      </c>
+      <c r="BO7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="26"/>
+      <c r="BR7" s="25"/>
+      <c r="BS7" s="24"/>
+      <c r="BT7" s="23"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="21"/>
+      <c r="CA7" s="20"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7">
+        <v>3</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="95">
+        <v>0.3</v>
+      </c>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="65"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="27"/>
+      <c r="BN8" s="28">
+        <v>936659</v>
+      </c>
+      <c r="BO8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="28" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>3</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="95">
+        <v>0.5</v>
+      </c>
+      <c r="AD9" s="102"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
+  <mergeCells count="20">
+    <mergeCell ref="AD4:AD9"/>
     <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:BB2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:CA2"/>
+    <mergeCell ref="BK1:CA1"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="AC1:BI1"/>
+    <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:AA2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BZ2"/>
-    <mergeCell ref="BJ1:BZ1"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="AC1:BH1"/>
-    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AQ2"/>
+    <mergeCell ref="AR2:BC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Exp_colectivo/registro_experimento.xlsx
+++ b/Exp_colectivo/registro_experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Exp_colectivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430170B8-820B-425A-B497-873FC30D1355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556F65DC-838C-459B-B942-8A2712A9D33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
+    <comment ref="BT3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>AD5</t>
   </si>
@@ -302,6 +302,27 @@
   </si>
   <si>
     <t>TS N°</t>
+  </si>
+  <si>
+    <t>DR9141AD1</t>
+  </si>
+  <si>
+    <t>FE9250AD1</t>
+  </si>
+  <si>
+    <t>TS9320AD1</t>
+  </si>
+  <si>
+    <t>FE9250AD2</t>
+  </si>
+  <si>
+    <t>TS9320AD2</t>
+  </si>
+  <si>
+    <t>Semilla sampling</t>
+  </si>
+  <si>
+    <t>Semilla under</t>
   </si>
 </sst>
 </file>
@@ -477,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -676,24 +697,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,6 +880,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,7 +943,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,71 +953,20 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1275,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
-  <dimension ref="A1:CB14"/>
+  <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,238 +1318,248 @@
     <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20.7109375" customWidth="1"/>
-    <col min="32" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="60" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.42578125" customWidth="1"/>
-    <col min="63" max="63" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="12.28515625" customWidth="1"/>
-    <col min="69" max="69" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" customWidth="1"/>
+    <col min="34" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="62" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.42578125" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="12.28515625" customWidth="1"/>
+    <col min="71" max="71" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="59"/>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="72"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="91"/>
       <c r="AB1" s="58"/>
-      <c r="AC1" s="90" t="s">
+      <c r="AC1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
-      <c r="AW1" s="91"/>
-      <c r="AX1" s="91"/>
-      <c r="AY1" s="91"/>
-      <c r="AZ1" s="91"/>
-      <c r="BA1" s="91"/>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
-      <c r="BD1" s="91"/>
-      <c r="BE1" s="91"/>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="91"/>
-      <c r="BI1" s="92"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="90" t="s">
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="91"/>
-      <c r="BM1" s="91"/>
-      <c r="BN1" s="91"/>
-      <c r="BO1" s="91"/>
-      <c r="BP1" s="91"/>
-      <c r="BQ1" s="91"/>
-      <c r="BR1" s="91"/>
-      <c r="BS1" s="91"/>
-      <c r="BT1" s="91"/>
-      <c r="BU1" s="91"/>
-      <c r="BV1" s="91"/>
-      <c r="BW1" s="91"/>
-      <c r="BX1" s="91"/>
-      <c r="BY1" s="91"/>
-      <c r="BZ1" s="91"/>
-      <c r="CA1" s="92"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="78"/>
+      <c r="BS1" s="78"/>
+      <c r="BT1" s="78"/>
+      <c r="BU1" s="78"/>
+      <c r="BV1" s="78"/>
+      <c r="BW1" s="78"/>
+      <c r="BX1" s="78"/>
+      <c r="BY1" s="78"/>
+      <c r="BZ1" s="78"/>
+      <c r="CA1" s="78"/>
+      <c r="CB1" s="78"/>
+      <c r="CC1" s="79"/>
     </row>
-    <row r="2" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="84" t="s">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
       <c r="AB2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AC2" s="92" t="s">
         <v>55</v>
       </c>
       <c r="AD2" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="75" t="s">
+      <c r="AE2" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="77" t="s">
+      <c r="AH2" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="78" t="s">
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="93" t="s">
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="94" t="s">
+      <c r="BG2" s="73"/>
+      <c r="BH2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="74"/>
+      <c r="BK2" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="BJ2" s="63"/>
-      <c r="BK2" s="86" t="s">
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="87"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="88" t="s">
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="BP2" s="89"/>
-      <c r="BQ2" s="88" t="s">
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="BR2" s="89"/>
-      <c r="BS2" s="86" t="s">
+      <c r="BT2" s="76"/>
+      <c r="BU2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="BT2" s="74"/>
-      <c r="BU2" s="74"/>
-      <c r="BV2" s="74"/>
-      <c r="BW2" s="74"/>
-      <c r="BX2" s="74"/>
-      <c r="BY2" s="74"/>
-      <c r="BZ2" s="74"/>
-      <c r="CA2" s="87"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="74"/>
     </row>
-    <row r="3" spans="1:80" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>46</v>
       </c>
@@ -1621,156 +1640,158 @@
         <v>24</v>
       </c>
       <c r="AB3" s="47"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="45">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="45">
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="45">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="45">
         <v>2</v>
       </c>
-      <c r="AH3" s="45">
+      <c r="AJ3" s="45">
         <v>3</v>
       </c>
-      <c r="AI3" s="45">
+      <c r="AK3" s="45">
         <v>4</v>
       </c>
-      <c r="AJ3" s="45">
+      <c r="AL3" s="45">
         <v>5</v>
       </c>
-      <c r="AK3" s="45">
+      <c r="AM3" s="45">
         <v>6</v>
       </c>
-      <c r="AL3" s="45">
+      <c r="AN3" s="45">
         <v>7</v>
       </c>
-      <c r="AM3" s="45">
+      <c r="AO3" s="45">
         <v>8</v>
       </c>
-      <c r="AN3" s="45">
+      <c r="AP3" s="45">
         <v>9</v>
       </c>
-      <c r="AO3" s="45">
+      <c r="AQ3" s="45">
         <v>10</v>
       </c>
-      <c r="AP3" s="45">
+      <c r="AR3" s="45">
         <v>11</v>
       </c>
-      <c r="AQ3" s="45">
+      <c r="AS3" s="45">
         <v>12</v>
       </c>
-      <c r="AR3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="44">
+      <c r="AT3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="44">
         <v>2</v>
       </c>
-      <c r="AT3" s="44">
+      <c r="AV3" s="44">
         <v>3</v>
       </c>
-      <c r="AU3" s="44">
+      <c r="AW3" s="44">
         <v>4</v>
       </c>
-      <c r="AV3" s="44">
+      <c r="AX3" s="44">
         <v>5</v>
       </c>
-      <c r="AW3" s="44">
+      <c r="AY3" s="44">
         <v>6</v>
       </c>
-      <c r="AX3" s="44">
+      <c r="AZ3" s="44">
         <v>7</v>
       </c>
-      <c r="AY3" s="44">
+      <c r="BA3" s="44">
         <v>8</v>
       </c>
-      <c r="AZ3" s="44">
+      <c r="BB3" s="44">
         <v>9</v>
       </c>
-      <c r="BA3" s="44">
+      <c r="BC3" s="44">
         <v>10</v>
       </c>
-      <c r="BB3" s="44">
+      <c r="BD3" s="44">
         <v>11</v>
       </c>
-      <c r="BC3" s="44">
+      <c r="BE3" s="44">
         <v>12</v>
       </c>
-      <c r="BD3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="43">
+      <c r="BF3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="43">
         <v>2</v>
       </c>
-      <c r="BF3" s="43">
+      <c r="BH3" s="43">
         <v>3</v>
       </c>
-      <c r="BG3" s="43">
+      <c r="BI3" s="43">
         <v>4</v>
       </c>
-      <c r="BH3" s="42">
+      <c r="BJ3" s="42">
         <v>5</v>
       </c>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="55" t="s">
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="BK3" s="41" t="s">
+      <c r="BM3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="BL3" s="41" t="s">
+      <c r="BN3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BM3" s="40" t="s">
+      <c r="BO3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BN3" s="68" t="s">
+      <c r="BP3" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="BO3" s="41" t="s">
+      <c r="BQ3" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="BP3" s="68" t="s">
+      <c r="BR3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="BQ3" s="39" t="s">
+      <c r="BS3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="BR3" s="38" t="s">
+      <c r="BT3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BS3" s="37" t="s">
+      <c r="BU3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="BT3" s="36" t="s">
+      <c r="BV3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="BU3" s="36" t="s">
+      <c r="BW3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="BV3" s="36" t="s">
+      <c r="BX3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BW3" s="36" t="s">
+      <c r="BY3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="BX3" s="36" t="s">
+      <c r="BZ3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BY3" s="36" t="s">
+      <c r="CA3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BZ3" s="36" t="s">
+      <c r="CB3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="CA3" s="35" t="s">
+      <c r="CC3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="CB3" s="69" t="s">
+      <c r="CD3" s="69" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
@@ -1828,22 +1849,22 @@
       <c r="AC4" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD4" s="100">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AD4" s="99">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="99">
+        <v>732497</v>
+      </c>
+      <c r="AF4" s="99">
+        <v>936659</v>
+      </c>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
       <c r="AI4" s="31"/>
-      <c r="AJ4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="31">
-        <v>1</v>
-      </c>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="31">
         <v>1</v>
       </c>
@@ -1862,11 +1883,11 @@
       <c r="AQ4" s="31">
         <v>1</v>
       </c>
-      <c r="AR4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="30">
-        <v>0</v>
+      <c r="AR4" s="31">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="31">
+        <v>1</v>
       </c>
       <c r="AT4" s="30">
         <v>0</v>
@@ -1893,68 +1914,74 @@
         <v>0</v>
       </c>
       <c r="BB4" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="30">
         <v>1</v>
       </c>
       <c r="BF4" s="29">
         <v>1</v>
       </c>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="65">
-        <f>SUM(AF4:BH4)</f>
+      <c r="BG4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="65">
+        <f>SUM(AH4:BJ4)</f>
         <v>13</v>
       </c>
-      <c r="BJ4" s="67" t="s">
+      <c r="BL4" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="BK4" s="28">
+      <c r="BM4" s="28">
         <v>1223</v>
       </c>
-      <c r="BL4" s="28">
+      <c r="BN4" s="28">
         <v>758301</v>
       </c>
-      <c r="BM4" s="27">
-        <f>BL4*BK4</f>
+      <c r="BO4" s="27">
+        <f>BN4*BM4</f>
         <v>927402123</v>
       </c>
-      <c r="BN4" s="28">
+      <c r="BP4" s="28">
         <v>936659</v>
       </c>
-      <c r="BO4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="26">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="25">
+      <c r="BQ4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="26">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="25">
         <v>72</v>
       </c>
-      <c r="BS4" s="24">
+      <c r="BU4" s="24">
         <v>4573</v>
       </c>
-      <c r="BT4" s="23">
+      <c r="BV4" s="23">
         <v>7.2723382536366201E-3</v>
       </c>
-      <c r="BU4" s="21"/>
-      <c r="BV4" s="22">
+      <c r="BW4" s="21"/>
+      <c r="BX4" s="22">
         <v>0.60417248985265604</v>
       </c>
-      <c r="BW4" s="21"/>
-      <c r="CA4" s="20"/>
+      <c r="BY4" s="21"/>
+      <c r="CC4" s="20"/>
     </row>
-    <row r="5" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +2004,9 @@
       <c r="N5" s="19">
         <v>1</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="P5" s="7">
         <v>1</v>
       </c>
@@ -2000,14 +2029,16 @@
       <c r="AA5" s="18">
         <v>1223</v>
       </c>
-      <c r="AB5" s="18"/>
+      <c r="AB5" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="AC5" s="33"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="17" t="s">
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
@@ -2018,8 +2049,8 @@
       <c r="AO5" s="16"/>
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
       <c r="AT5" s="15"/>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -2030,47 +2061,51 @@
       <c r="BA5" s="15"/>
       <c r="BB5" s="15"/>
       <c r="BC5" s="15"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
       <c r="BF5" s="14"/>
-      <c r="BG5" s="14">
-        <v>1</v>
-      </c>
+      <c r="BG5" s="14"/>
       <c r="BH5" s="14"/>
-      <c r="BI5" s="64">
-        <f>SUM(AF5:BH5)</f>
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="67"/>
-      <c r="BK5" s="28">
+      <c r="BI5" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="64">
+        <f>SUM(AH5:BJ5)</f>
+        <v>1</v>
+      </c>
+      <c r="BL5" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM5" s="28">
         <v>1223</v>
       </c>
-      <c r="BL5" s="28">
+      <c r="BN5" s="28">
         <v>758301</v>
       </c>
-      <c r="BM5" s="27">
-        <f>BL5*BK5</f>
+      <c r="BO5" s="27">
+        <f>BN5*BM5</f>
         <v>927402123</v>
       </c>
-      <c r="BN5" s="28">
+      <c r="BP5" s="28">
         <v>936659</v>
       </c>
-      <c r="BO5" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="26"/>
-      <c r="BR5" s="25"/>
-      <c r="BS5" s="24"/>
-      <c r="BT5" s="23"/>
-      <c r="BU5" s="21"/>
-      <c r="BV5" s="22"/>
+      <c r="BQ5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="25"/>
+      <c r="BU5" s="24"/>
+      <c r="BV5" s="23"/>
       <c r="BW5" s="21"/>
-      <c r="CA5" s="20"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="21"/>
+      <c r="CC5" s="20"/>
     </row>
-    <row r="6" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2128,9 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="7"/>
@@ -2110,14 +2147,16 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="18"/>
+      <c r="AB6" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="AC6" s="33"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="17" t="s">
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
@@ -2128,8 +2167,8 @@
       <c r="AO6" s="16"/>
       <c r="AP6" s="16"/>
       <c r="AQ6" s="16"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
       <c r="AT6" s="15"/>
       <c r="AU6" s="15"/>
       <c r="AV6" s="15"/>
@@ -2140,40 +2179,44 @@
       <c r="BA6" s="15"/>
       <c r="BB6" s="15"/>
       <c r="BC6" s="15"/>
-      <c r="BD6" s="14"/>
-      <c r="BE6" s="14"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
-      <c r="BH6" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="64">
-        <f>SUM(AF6:BH6)</f>
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="28"/>
-      <c r="BL6" s="28"/>
-      <c r="BM6" s="27"/>
-      <c r="BN6" s="28">
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="64">
+        <f>SUM(AH6:BJ6)</f>
+        <v>1</v>
+      </c>
+      <c r="BL6" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="27"/>
+      <c r="BP6" s="28">
         <v>936659</v>
       </c>
-      <c r="BO6" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="26"/>
-      <c r="BR6" s="25"/>
-      <c r="BS6" s="24"/>
-      <c r="BT6" s="23"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="22"/>
+      <c r="BQ6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="26"/>
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="23"/>
       <c r="BW6" s="21"/>
-      <c r="CA6" s="20"/>
+      <c r="BX6" s="22"/>
+      <c r="BY6" s="21"/>
+      <c r="CC6" s="20"/>
     </row>
-    <row r="7" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2219,20 +2262,16 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="5" t="s">
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
-      <c r="AJ7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>1</v>
-      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
       <c r="AL7" s="4">
         <v>1</v>
       </c>
@@ -2251,11 +2290,11 @@
       <c r="AQ7" s="4">
         <v>1</v>
       </c>
-      <c r="AR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>0</v>
+      <c r="AR7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>1</v>
       </c>
       <c r="AT7" s="3">
         <v>0</v>
@@ -2282,51 +2321,57 @@
         <v>0</v>
       </c>
       <c r="BB7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="3">
         <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>1</v>
       </c>
       <c r="BG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="2">
         <v>0</v>
       </c>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="66">
-        <f>SUM(AF7:BH7)</f>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="66">
+        <f>SUM(AH7:BJ7)</f>
         <v>13</v>
       </c>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="28"/>
-      <c r="BL7" s="28"/>
-      <c r="BM7" s="27"/>
-      <c r="BN7" s="28">
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="28"/>
+      <c r="BN7" s="28"/>
+      <c r="BO7" s="27"/>
+      <c r="BP7" s="28">
         <v>936659</v>
       </c>
-      <c r="BO7" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="26"/>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="24"/>
-      <c r="BT7" s="23"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="22"/>
+      <c r="BQ7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="26"/>
+      <c r="BT7" s="25"/>
+      <c r="BU7" s="24"/>
+      <c r="BV7" s="23"/>
       <c r="BW7" s="21"/>
-      <c r="CA7" s="20"/>
+      <c r="BX7" s="22"/>
+      <c r="BY7" s="21"/>
+      <c r="CC7" s="20"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2371,56 +2416,58 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
-      <c r="AC8" s="95">
+      <c r="AC8" s="70">
         <v>0.3</v>
       </c>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="97"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="97"/>
-      <c r="BB8" s="97"/>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="97"/>
-      <c r="BG8" s="97"/>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="28"/>
-      <c r="BL8" s="28"/>
-      <c r="BM8" s="27"/>
-      <c r="BN8" s="28">
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="71"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="71"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="71"/>
+      <c r="BG8" s="71"/>
+      <c r="BH8" s="71"/>
+      <c r="BI8" s="71"/>
+      <c r="BJ8" s="71"/>
+      <c r="BK8" s="65"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="28"/>
+      <c r="BN8" s="28"/>
+      <c r="BO8" s="27"/>
+      <c r="BP8" s="28">
         <v>936659</v>
       </c>
-      <c r="BO8" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="28" t="b">
+      <c r="BQ8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2465,48 +2512,54 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="95">
+      <c r="AC9" s="70">
         <v>0.5</v>
       </c>
-      <c r="AD9" s="102"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AD4:AD9"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:CA2"/>
-    <mergeCell ref="BK1:CA1"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="AC1:BI1"/>
-    <mergeCell ref="BO2:BP2"/>
+  <mergeCells count="24">
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AS2"/>
+    <mergeCell ref="AT2:BE2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:AA2"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AQ2"/>
-    <mergeCell ref="AR2:BC2"/>
+    <mergeCell ref="BM1:CC1"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="AC1:BK1"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="AD4:AD9"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:CC2"/>
+    <mergeCell ref="AE4:AE9"/>
+    <mergeCell ref="AF4:AF9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Exp_colectivo/registro_experimento.xlsx
+++ b/Exp_colectivo/registro_experimento.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Exp_colectivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556F65DC-838C-459B-B942-8A2712A9D33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16ECA2B-11E7-41D7-9C8F-DE5E3326BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
+    <sheet name="scores" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">scores!$A$1:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>AD5</t>
   </si>
@@ -323,6 +327,27 @@
   </si>
   <si>
     <t>Semilla under</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Experimento</t>
+  </si>
+  <si>
+    <t>Public score</t>
+  </si>
+  <si>
+    <t>Private score</t>
+  </si>
+  <si>
+    <t>Envíos</t>
+  </si>
+  <si>
+    <t>AD6</t>
+  </si>
+  <si>
+    <t>TS9320AD6</t>
   </si>
 </sst>
 </file>
@@ -332,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +437,30 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -498,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -697,13 +746,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,6 +942,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,6 +977,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,20 +1023,17 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1284,282 +1351,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
-  <dimension ref="A1:CD14"/>
+  <dimension ref="A1:CD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BM11" sqref="BM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" customWidth="1"/>
+    <col min="16" max="16" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.73046875" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" customWidth="1"/>
-    <col min="34" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="62" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.42578125" customWidth="1"/>
-    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="12.28515625" customWidth="1"/>
-    <col min="71" max="71" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1328125" customWidth="1"/>
+    <col min="34" max="42" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="62" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.3984375" customWidth="1"/>
+    <col min="65" max="65" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="12.265625" customWidth="1"/>
+    <col min="71" max="71" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="59"/>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="91"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="97"/>
       <c r="AB1" s="58"/>
-      <c r="AC1" s="77" t="s">
+      <c r="AC1" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="79"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
+      <c r="BK1" s="84"/>
       <c r="BL1" s="57"/>
-      <c r="BM1" s="77" t="s">
+      <c r="BM1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="78"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="78"/>
-      <c r="BU1" s="78"/>
-      <c r="BV1" s="78"/>
-      <c r="BW1" s="78"/>
-      <c r="BX1" s="78"/>
-      <c r="BY1" s="78"/>
-      <c r="BZ1" s="78"/>
-      <c r="CA1" s="78"/>
-      <c r="CB1" s="78"/>
-      <c r="CC1" s="79"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
+      <c r="BQ1" s="83"/>
+      <c r="BR1" s="83"/>
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
+      <c r="BW1" s="83"/>
+      <c r="BX1" s="83"/>
+      <c r="BY1" s="83"/>
+      <c r="BZ1" s="83"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
+      <c r="CC1" s="84"/>
     </row>
-    <row r="2" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="87" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
       <c r="O2" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
       <c r="AB2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="92" t="s">
+      <c r="AC2" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="98" t="s">
+      <c r="AD2" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="100" t="s">
+      <c r="AE2" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="100" t="s">
+      <c r="AF2" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="93" t="s">
+      <c r="AG2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="95" t="s">
+      <c r="AH2" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="96" t="s">
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="80" t="s">
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="BG2" s="73"/>
-      <c r="BH2" s="73"/>
-      <c r="BI2" s="73"/>
-      <c r="BJ2" s="74"/>
-      <c r="BK2" s="81" t="s">
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="86" t="s">
         <v>50</v>
       </c>
       <c r="BL2" s="63"/>
-      <c r="BM2" s="72" t="s">
+      <c r="BM2" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="74"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="79"/>
       <c r="BP2" s="46"/>
-      <c r="BQ2" s="75" t="s">
+      <c r="BQ2" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="BR2" s="76"/>
-      <c r="BS2" s="75" t="s">
+      <c r="BR2" s="81"/>
+      <c r="BS2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="BT2" s="76"/>
-      <c r="BU2" s="72" t="s">
+      <c r="BT2" s="81"/>
+      <c r="BU2" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
-      <c r="CC2" s="74"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="78"/>
+      <c r="CC2" s="79"/>
     </row>
-    <row r="3" spans="1:82" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="54" t="s">
         <v>46</v>
       </c>
@@ -1640,11 +1707,11 @@
         <v>24</v>
       </c>
       <c r="AB3" s="47"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="94"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="100"/>
       <c r="AH3" s="45">
         <v>1</v>
       </c>
@@ -1732,7 +1799,7 @@
       <c r="BJ3" s="42">
         <v>5</v>
       </c>
-      <c r="BK3" s="73"/>
+      <c r="BK3" s="78"/>
       <c r="BL3" s="55" t="s">
         <v>66</v>
       </c>
@@ -1791,9 +1858,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -1818,9 +1885,7 @@
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="O4" s="9"/>
       <c r="P4" s="7">
         <v>1</v>
       </c>
@@ -1843,19 +1908,17 @@
       <c r="AA4" s="18">
         <v>1223</v>
       </c>
-      <c r="AB4" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="AB4" s="18"/>
       <c r="AC4" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD4" s="99">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="99">
+      <c r="AD4" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="75">
         <v>732497</v>
       </c>
-      <c r="AF4" s="99">
+      <c r="AF4" s="75">
         <v>936659</v>
       </c>
       <c r="AG4" s="32" t="s">
@@ -1940,9 +2003,7 @@
         <f>SUM(AH4:BJ4)</f>
         <v>13</v>
       </c>
-      <c r="BL4" s="67" t="s">
-        <v>69</v>
-      </c>
+      <c r="BL4" s="67"/>
       <c r="BM4" s="28">
         <v>1223</v>
       </c>
@@ -1980,13 +2041,20 @@
       </c>
       <c r="BY4" s="21"/>
       <c r="CC4" s="20"/>
+      <c r="CD4">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
+    <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>49.35369</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -1999,13 +2067,13 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="19">
-        <v>1</v>
-      </c>
+      <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -2030,12 +2098,14 @@
         <v>1223</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
+        <v>68</v>
+      </c>
+      <c r="AC5" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
       <c r="AG5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="BL5" s="67" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="BM5" s="28">
         <v>1223</v>
@@ -2096,18 +2166,28 @@
       <c r="BR5" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="BS5" s="26"/>
-      <c r="BT5" s="25"/>
-      <c r="BU5" s="24"/>
-      <c r="BV5" s="23"/>
+      <c r="BS5" s="26">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="25">
+        <v>108</v>
+      </c>
+      <c r="BU5" s="24">
+        <v>786</v>
+      </c>
+      <c r="BV5" s="23">
+        <v>0.117022368905601</v>
+      </c>
       <c r="BW5" s="21"/>
-      <c r="BX5" s="22"/>
+      <c r="BX5" s="22">
+        <v>0.89261985747947103</v>
+      </c>
       <c r="BY5" s="21"/>
       <c r="CC5" s="20"/>
     </row>
-    <row r="6" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -2123,16 +2203,20 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
+      <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7">
@@ -2146,14 +2230,16 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="6"/>
+      <c r="AA6" s="18">
+        <v>1223</v>
+      </c>
       <c r="AB6" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AC6" s="33"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
       <c r="AG6" s="17" t="s">
         <v>4</v>
       </c>
@@ -2193,11 +2279,18 @@
         <v>1</v>
       </c>
       <c r="BL6" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM6" s="28"/>
-      <c r="BN6" s="28"/>
-      <c r="BO6" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="BM6" s="28">
+        <v>1223</v>
+      </c>
+      <c r="BN6" s="28">
+        <v>758301</v>
+      </c>
+      <c r="BO6" s="27">
+        <f>BN6*BM6</f>
+        <v>927402123</v>
+      </c>
       <c r="BP6" s="28">
         <v>936659</v>
       </c>
@@ -2216,9 +2309,9 @@
       <c r="BY6" s="21"/>
       <c r="CC6" s="20"/>
     </row>
-    <row r="7" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
@@ -2239,20 +2332,18 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
+      <c r="O7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>1</v>
       </c>
-      <c r="U7" s="8">
-        <v>6</v>
+      <c r="U7" s="7">
+        <v>3</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -2260,11 +2351,13 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="18"/>
+      <c r="AB7" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
       <c r="AG7" s="5" t="s">
         <v>2</v>
       </c>
@@ -2349,7 +2442,9 @@
         <f>SUM(AH7:BJ7)</f>
         <v>13</v>
       </c>
-      <c r="BL7" s="67"/>
+      <c r="BL7" s="67" t="s">
+        <v>80</v>
+      </c>
       <c r="BM7" s="28"/>
       <c r="BN7" s="28"/>
       <c r="BO7" s="27"/>
@@ -2371,9 +2466,9 @@
       <c r="BY7" s="21"/>
       <c r="CC7" s="20"/>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -2406,22 +2501,20 @@
       <c r="T8" s="7">
         <v>1</v>
       </c>
-      <c r="U8" s="7">
-        <v>3</v>
+      <c r="U8" s="8">
+        <v>6</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="18"/>
+      <c r="AA8" s="6"/>
       <c r="AB8" s="18"/>
-      <c r="AC8" s="70">
-        <v>0.3</v>
-      </c>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="71"/>
       <c r="AI8" s="71"/>
@@ -2466,10 +2559,18 @@
       <c r="BR8" s="28" t="b">
         <v>1</v>
       </c>
+      <c r="BS8" s="26"/>
+      <c r="BT8" s="25"/>
+      <c r="BU8" s="24"/>
+      <c r="BV8" s="23"/>
+      <c r="BW8" s="21"/>
+      <c r="BX8" s="22"/>
+      <c r="BY8" s="21"/>
+      <c r="CC8" s="20"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -2513,29 +2614,421 @@
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="28">
+        <v>936659</v>
+      </c>
+      <c r="BQ9" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7">
+        <v>1</v>
+      </c>
+      <c r="U10" s="7">
+        <v>3</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="70">
         <v>0.5</v>
       </c>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>3</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="18">
+        <v>1223</v>
+      </c>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="AD11" s="106">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="75">
+        <v>732497</v>
+      </c>
+      <c r="AF11" s="75">
+        <v>936659</v>
+      </c>
+      <c r="AG11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="30">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="30">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="29">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="29">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="29">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="29"/>
+      <c r="BK11" s="65">
+        <f>SUM(AH11:BJ11)</f>
+        <v>13</v>
+      </c>
+      <c r="BL11" s="67" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="AB12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="64">
+        <f>SUM(AH12:BJ12)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="64">
+        <f>SUM(AH13:BJ13)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="66">
+        <f>SUM(AH14:BJ14)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.45">
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+    </row>
+    <row r="17" spans="31:32" x14ac:dyDescent="0.45">
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="AD11:AD14"/>
+    <mergeCell ref="AE11:AE17"/>
+    <mergeCell ref="AF11:AF17"/>
     <mergeCell ref="D1:AA1"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AG2:AG3"/>
@@ -2553,15 +3046,198 @@
     <mergeCell ref="BK2:BK3"/>
     <mergeCell ref="AC1:BK1"/>
     <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="AD4:AD9"/>
+    <mergeCell ref="AD4:AD10"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="BM2:BO2"/>
     <mergeCell ref="BS2:BT2"/>
     <mergeCell ref="BU2:CC2"/>
-    <mergeCell ref="AE4:AE9"/>
-    <mergeCell ref="AF4:AF9"/>
+    <mergeCell ref="AE4:AE10"/>
+    <mergeCell ref="AF4:AF10"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB7AE08-BA0F-45FB-9FBD-880C567EFAE3}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="74">
+        <v>49.272089999999999</v>
+      </c>
+      <c r="C2" s="72">
+        <v>47.892699999999998</v>
+      </c>
+      <c r="D2">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="74">
+        <v>50.511850000000003</v>
+      </c>
+      <c r="C3" s="72">
+        <v>48.290579999999999</v>
+      </c>
+      <c r="D3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="74">
+        <v>51.311700000000002</v>
+      </c>
+      <c r="C4" s="72">
+        <v>48.374780000000001</v>
+      </c>
+      <c r="D4">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="74">
+        <v>50.791759999999996</v>
+      </c>
+      <c r="C5" s="72">
+        <v>48.865299999999998</v>
+      </c>
+      <c r="D5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="74">
+        <v>49.991880000000002</v>
+      </c>
+      <c r="C6" s="72">
+        <v>49.033700000000003</v>
+      </c>
+      <c r="D6">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="73">
+        <v>51.111660000000001</v>
+      </c>
+      <c r="C7" s="72">
+        <v>49.35369</v>
+      </c>
+      <c r="D7">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="73">
+        <v>51.791530000000002</v>
+      </c>
+      <c r="C8" s="72">
+        <v>49.023130000000002</v>
+      </c>
+      <c r="D8">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="73">
+        <v>52.67136</v>
+      </c>
+      <c r="C9" s="72">
+        <v>49.103110000000001</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="73">
+        <v>53.351230000000001</v>
+      </c>
+      <c r="C10" s="72">
+        <v>48.94097</v>
+      </c>
+      <c r="D10">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="73">
+        <v>52.711320000000001</v>
+      </c>
+      <c r="C11" s="72">
+        <v>48.174610000000001</v>
+      </c>
+      <c r="D11">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D6" xr:uid="{2FB7AE08-BA0F-45FB-9FBD-880C567EFAE3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+      <sortCondition descending="1" ref="D1:D6"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Exp_colectivo/registro_experimento.xlsx
+++ b/Exp_colectivo/registro_experimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Exp_colectivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16ECA2B-11E7-41D7-9C8F-DE5E3326BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FCFDC8-7148-4413-B419-21DCD81E3E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
@@ -78,20 +78,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>AD5</t>
   </si>
   <si>
-    <t>AD4</t>
-  </si>
-  <si>
     <t>Final Train</t>
   </si>
   <si>
-    <t>AD3</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -348,6 +342,21 @@
   </si>
   <si>
     <t>TS9320AD6</t>
+  </si>
+  <si>
+    <t>AD7</t>
+  </si>
+  <si>
+    <t>AGREGAR RANDOM FOREST</t>
+  </si>
+  <si>
+    <t>AD3 (nicolas)</t>
+  </si>
+  <si>
+    <t>AD4 (nicolas)</t>
+  </si>
+  <si>
+    <t>TS9320AD5</t>
   </si>
 </sst>
 </file>
@@ -357,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,8 +471,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +560,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -756,12 +777,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,8 +967,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -954,32 +999,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,18 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,16 +1036,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1353,365 +1385,365 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:CD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BM11" sqref="BM11"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BL11" sqref="BL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.59765625" customWidth="1"/>
-    <col min="16" max="16" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.73046875" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="9.1328125" customWidth="1"/>
-    <col min="34" max="42" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="62" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.3984375" customWidth="1"/>
-    <col min="65" max="65" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="12.265625" customWidth="1"/>
-    <col min="71" max="71" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" customWidth="1"/>
+    <col min="34" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="62" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.42578125" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="12.28515625" customWidth="1"/>
+    <col min="71" max="71" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:82" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="59"/>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
+      <c r="BR1" s="76"/>
+      <c r="BS1" s="76"/>
+      <c r="BT1" s="76"/>
+      <c r="BU1" s="76"/>
+      <c r="BV1" s="76"/>
+      <c r="BW1" s="76"/>
+      <c r="BX1" s="76"/>
+      <c r="BY1" s="76"/>
+      <c r="BZ1" s="76"/>
+      <c r="CA1" s="76"/>
+      <c r="CB1" s="76"/>
+      <c r="CC1" s="77"/>
+    </row>
+    <row r="2" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
-      <c r="BQ1" s="83"/>
-      <c r="BR1" s="83"/>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
-      <c r="BW1" s="83"/>
-      <c r="BX1" s="83"/>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="83"/>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
-      <c r="CC1" s="84"/>
+      <c r="P2" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF2" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="80"/>
+      <c r="BK2" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT2" s="84"/>
+      <c r="BU2" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV2" s="79"/>
+      <c r="BW2" s="79"/>
+      <c r="BX2" s="79"/>
+      <c r="BY2" s="79"/>
+      <c r="BZ2" s="79"/>
+      <c r="CA2" s="79"/>
+      <c r="CB2" s="79"/>
+      <c r="CC2" s="80"/>
     </row>
-    <row r="2" spans="1:82" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR2" s="81"/>
-      <c r="BS2" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT2" s="81"/>
-      <c r="BU2" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="BV2" s="78"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="78"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="78"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="79"/>
-    </row>
-    <row r="3" spans="1:82" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:82" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="E3" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>41</v>
-      </c>
       <c r="J3" s="51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" s="49"/>
       <c r="P3" s="48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S3" s="48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T3" s="48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB3" s="47"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="100"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="95"/>
       <c r="AH3" s="45">
         <v>1</v>
       </c>
@@ -1799,68 +1831,68 @@
       <c r="BJ3" s="42">
         <v>5</v>
       </c>
-      <c r="BK3" s="78"/>
+      <c r="BK3" s="79"/>
       <c r="BL3" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BM3" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BN3" s="41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BO3" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BP3" s="68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BQ3" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BR3" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="BT3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD3" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="BS3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="BT3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="BU3" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="BV3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="BW3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="BX3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="BY3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="BZ3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="CA3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="CB3" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="CC3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="CD3" s="69" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="4" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -1912,17 +1944,17 @@
       <c r="AC4" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD4" s="75">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="75">
+      <c r="AD4" s="102">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="102">
         <v>732497</v>
       </c>
-      <c r="AF4" s="75">
+      <c r="AF4" s="102">
         <v>936659</v>
       </c>
       <c r="AG4" s="32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH4" s="31"/>
       <c r="AI4" s="31"/>
@@ -2045,9 +2077,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="34" t="s">
-        <v>9</v>
+    <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="109" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -2073,7 +2105,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -2098,16 +2130,16 @@
         <v>1223</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC5" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="75"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
       <c r="AG5" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
@@ -2145,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="BL5" s="67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BM5" s="28">
         <v>1223</v>
@@ -2184,10 +2216,13 @@
       </c>
       <c r="BY5" s="21"/>
       <c r="CC5" s="20"/>
+      <c r="CD5">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+    <row r="6" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -2209,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -2234,14 +2269,14 @@
         <v>1223</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AC6" s="33"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
       <c r="AG6" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
@@ -2279,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="BL6" s="67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BM6" s="28">
         <v>1223</v>
@@ -2300,18 +2335,28 @@
       <c r="BR6" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="BS6" s="26"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="24"/>
-      <c r="BV6" s="23"/>
+      <c r="BS6" s="26">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="25">
+        <v>46</v>
+      </c>
+      <c r="BU6" s="24">
+        <v>1657</v>
+      </c>
+      <c r="BV6">
+        <v>1.3540084688371701E-2</v>
+      </c>
       <c r="BW6" s="21"/>
-      <c r="BX6" s="22"/>
+      <c r="BX6">
+        <v>0.49994343438832101</v>
+      </c>
       <c r="BY6" s="21"/>
       <c r="CC6" s="20"/>
     </row>
-    <row r="7" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+    <row r="7" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
@@ -2333,7 +2378,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -2352,14 +2397,14 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
       <c r="AG7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -2443,11 +2488,18 @@
         <v>13</v>
       </c>
       <c r="BL7" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM7" s="28"/>
-      <c r="BN7" s="28"/>
-      <c r="BO7" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="BM7" s="28">
+        <v>589</v>
+      </c>
+      <c r="BN7" s="28">
+        <v>758301</v>
+      </c>
+      <c r="BO7" s="27">
+        <f>BN7*BM7</f>
+        <v>446639289</v>
+      </c>
       <c r="BP7" s="28">
         <v>936659</v>
       </c>
@@ -2457,18 +2509,28 @@
       <c r="BR7" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="BS7" s="26"/>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="24"/>
-      <c r="BV7" s="23"/>
+      <c r="BS7" s="26">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>100</v>
+      </c>
+      <c r="BU7">
+        <v>4282</v>
+      </c>
+      <c r="BV7">
+        <v>1.0149866170514299E-2</v>
+      </c>
       <c r="BW7" s="21"/>
-      <c r="BX7" s="22"/>
+      <c r="BX7">
+        <v>0.52838424359800396</v>
+      </c>
       <c r="BY7" s="21"/>
       <c r="CC7" s="20"/>
     </row>
-    <row r="8" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
+    <row r="8" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="108" t="s">
+        <v>90</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -2512,9 +2574,9 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="33"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="71"/>
       <c r="AI8" s="71"/>
@@ -2568,9 +2630,9 @@
       <c r="BY8" s="21"/>
       <c r="CC8" s="20"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>91</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -2616,9 +2678,9 @@
       <c r="AC9" s="70">
         <v>0.3</v>
       </c>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
       <c r="BL9" s="67"/>
       <c r="BM9" s="28"/>
       <c r="BN9" s="28"/>
@@ -2633,8 +2695,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A10" s="108" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="13"/>
@@ -2656,7 +2718,9 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="P10" s="7">
         <v>1</v>
       </c>
@@ -2677,17 +2741,22 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="AC10" s="70">
         <v>0.5</v>
       </c>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="BL10" s="67" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>88</v>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>86</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -2708,7 +2777,9 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="P11" s="7">
         <v>1</v>
       </c>
@@ -2731,21 +2802,23 @@
       <c r="AA11" s="18">
         <v>1223</v>
       </c>
-      <c r="AB11" s="18"/>
+      <c r="AB11" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="AC11" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD11" s="106">
+      <c r="AD11" s="100">
         <v>2</v>
       </c>
-      <c r="AE11" s="75">
+      <c r="AE11" s="102">
         <v>732497</v>
       </c>
-      <c r="AF11" s="75">
+      <c r="AF11" s="102">
         <v>936659</v>
       </c>
       <c r="AG11" s="32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH11" s="31"/>
       <c r="AI11" s="31"/>
@@ -2827,19 +2900,24 @@
         <v>13</v>
       </c>
       <c r="BL11" s="67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
       <c r="AB12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
+        <v>66</v>
+      </c>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
       <c r="AG12" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
@@ -2877,13 +2955,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
       <c r="AG13" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
@@ -2921,13 +2999,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
       <c r="AG14" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -3011,18 +3089,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
     </row>
-    <row r="17" spans="31:32" x14ac:dyDescent="0.45">
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
+    <row r="17" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3031,11 +3109,9 @@
     <mergeCell ref="AF11:AF17"/>
     <mergeCell ref="D1:AA1"/>
     <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AS2"/>
-    <mergeCell ref="AT2:BE2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AD4:AD10"/>
+    <mergeCell ref="AE4:AE10"/>
+    <mergeCell ref="AF4:AF10"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -3046,13 +3122,15 @@
     <mergeCell ref="BK2:BK3"/>
     <mergeCell ref="AC1:BK1"/>
     <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="AD4:AD10"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="BM2:BO2"/>
     <mergeCell ref="BS2:BT2"/>
     <mergeCell ref="BU2:CC2"/>
-    <mergeCell ref="AE4:AE10"/>
-    <mergeCell ref="AF4:AF10"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AS2"/>
+    <mergeCell ref="AT2:BE2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,30 +3147,30 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="74">
         <v>49.272089999999999</v>
@@ -3104,9 +3182,9 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="74">
         <v>50.511850000000003</v>
@@ -3118,9 +3196,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="74">
         <v>51.311700000000002</v>
@@ -3132,9 +3210,9 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="74">
         <v>50.791759999999996</v>
@@ -3146,9 +3224,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="74">
         <v>49.991880000000002</v>
@@ -3160,9 +3238,9 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="73">
         <v>51.111660000000001</v>
@@ -3174,9 +3252,9 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="73">
         <v>51.791530000000002</v>
@@ -3188,9 +3266,9 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="73">
         <v>52.67136</v>
@@ -3202,9 +3280,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="73">
         <v>53.351230000000001</v>
@@ -3216,9 +3294,9 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="73">
         <v>52.711320000000001</v>

--- a/Exp_colectivo/registro_experimento.xlsx
+++ b/Exp_colectivo/registro_experimento.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Exp_colectivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FCFDC8-7148-4413-B419-21DCD81E3E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46A3A2-5D7E-4442-88FE-F55D5C1F2B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
-    <sheet name="scores" sheetId="2" r:id="rId2"/>
+    <sheet name="TS" sheetId="3" r:id="rId2"/>
+    <sheet name="scores" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">scores!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scores!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
+    <comment ref="AP3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
       <text>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>AD5</t>
   </si>
@@ -347,9 +348,6 @@
     <t>AD7</t>
   </si>
   <si>
-    <t>AGREGAR RANDOM FOREST</t>
-  </si>
-  <si>
     <t>AD3 (nicolas)</t>
   </si>
   <si>
@@ -357,6 +355,48 @@
   </si>
   <si>
     <t>TS9320AD5</t>
+  </si>
+  <si>
+    <t>FE9250AD7</t>
+  </si>
+  <si>
+    <t>TS9320AD7</t>
+  </si>
+  <si>
+    <t>HT9420AD5</t>
+  </si>
+  <si>
+    <t>HT9420AD0</t>
+  </si>
+  <si>
+    <t>HT9420AD1</t>
+  </si>
+  <si>
+    <t>HT9420AD2</t>
+  </si>
+  <si>
+    <t>HT9420AD6</t>
+  </si>
+  <si>
+    <t>HT9420AD7</t>
+  </si>
+  <si>
+    <t>ZZ9420AD2</t>
+  </si>
+  <si>
+    <t>ZZ9420AD5</t>
+  </si>
+  <si>
+    <t>ZZ9420AD6</t>
+  </si>
+  <si>
+    <t>ZZ9420AD7</t>
+  </si>
+  <si>
+    <t>ZZ9420AD0</t>
+  </si>
+  <si>
+    <t>ZZ9420AD1</t>
   </si>
 </sst>
 </file>
@@ -568,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -776,6 +816,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -783,7 +843,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,12 +1021,61 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,7 +1088,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -999,27 +1107,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,36 +1123,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1383,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
-  <dimension ref="A1:CD17"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BL11" sqref="BL11"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1472,7 @@
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -1415,250 +1488,182 @@
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
     <col min="32" max="32" width="9.140625" customWidth="1"/>
-    <col min="34" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="62" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.42578125" customWidth="1"/>
-    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="12.28515625" customWidth="1"/>
-    <col min="71" max="71" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" customWidth="1"/>
+    <col min="38" max="38" width="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="59"/>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="105"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="82"/>
       <c r="AB1" s="58"/>
-      <c r="AC1" s="75" t="s">
+      <c r="AC1" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="75" t="s">
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="76"/>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="76"/>
-      <c r="BR1" s="76"/>
-      <c r="BS1" s="76"/>
-      <c r="BT1" s="76"/>
-      <c r="BU1" s="76"/>
-      <c r="BV1" s="76"/>
-      <c r="BW1" s="76"/>
-      <c r="BX1" s="76"/>
-      <c r="BY1" s="76"/>
-      <c r="BZ1" s="76"/>
-      <c r="CA1" s="76"/>
-      <c r="CB1" s="76"/>
-      <c r="CC1" s="77"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="94"/>
     </row>
-    <row r="2" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="92" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
       <c r="O2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="93" t="s">
+      <c r="P2" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
       <c r="AB2" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="106" t="s">
+      <c r="AC2" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="85" t="s">
+      <c r="AD2" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="98" t="s">
+      <c r="AE2" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="AF2" s="98" t="s">
+      <c r="AF2" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="AG2" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="86" t="s">
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="83" t="s">
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="83" t="s">
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="BT2" s="84"/>
-      <c r="BU2" s="86" t="s">
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="BV2" s="79"/>
-      <c r="BW2" s="79"/>
-      <c r="BX2" s="79"/>
-      <c r="BY2" s="79"/>
-      <c r="BZ2" s="79"/>
-      <c r="CA2" s="79"/>
-      <c r="CB2" s="79"/>
-      <c r="CC2" s="80"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="96"/>
+      <c r="BA2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:82" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>44</v>
       </c>
@@ -1739,158 +1744,70 @@
         <v>22</v>
       </c>
       <c r="AB3" s="47"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="45">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="45">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="45">
-        <v>4</v>
-      </c>
-      <c r="AL3" s="45">
-        <v>5</v>
-      </c>
-      <c r="AM3" s="45">
-        <v>6</v>
-      </c>
-      <c r="AN3" s="45">
-        <v>7</v>
-      </c>
-      <c r="AO3" s="45">
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN3" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="45">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="45">
-        <v>10</v>
-      </c>
-      <c r="AR3" s="45">
-        <v>11</v>
-      </c>
-      <c r="AS3" s="45">
-        <v>12</v>
-      </c>
-      <c r="AT3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AW3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AX3" s="44">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="44">
-        <v>6</v>
-      </c>
-      <c r="AZ3" s="44">
-        <v>7</v>
-      </c>
-      <c r="BA3" s="44">
-        <v>8</v>
-      </c>
-      <c r="BB3" s="44">
-        <v>9</v>
-      </c>
-      <c r="BC3" s="44">
-        <v>10</v>
-      </c>
-      <c r="BD3" s="44">
-        <v>11</v>
-      </c>
-      <c r="BE3" s="44">
-        <v>12</v>
-      </c>
-      <c r="BF3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BH3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BI3" s="43">
-        <v>4</v>
-      </c>
-      <c r="BJ3" s="42">
-        <v>5</v>
-      </c>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM3" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN3" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="BO3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP3" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ3" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR3" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS3" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="BT3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="BU3" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="BV3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="BX3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="BY3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="BZ3" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="CA3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="CB3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD3" s="69" t="s">
+      <c r="AZ3" s="69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>81</v>
       </c>
@@ -1944,141 +1861,60 @@
       <c r="AC4" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD4" s="102">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="102">
+      <c r="AD4" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="109">
         <v>732497</v>
       </c>
-      <c r="AF4" s="102">
+      <c r="AF4" s="109">
         <v>936659</v>
       </c>
-      <c r="AG4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="29"/>
-      <c r="BK4" s="65">
-        <f>SUM(AH4:BJ4)</f>
-        <v>13</v>
-      </c>
-      <c r="BL4" s="67"/>
-      <c r="BM4" s="28">
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="28">
         <v>1223</v>
       </c>
-      <c r="BN4" s="28">
+      <c r="AI4" s="28">
         <v>758301</v>
       </c>
-      <c r="BO4" s="27">
-        <f>BN4*BM4</f>
+      <c r="AJ4" s="27">
+        <f>AI4*AH4</f>
         <v>927402123</v>
       </c>
-      <c r="BP4" s="28">
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="28">
         <v>936659</v>
       </c>
-      <c r="BQ4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="26">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="25">
+      <c r="AM4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="25">
         <v>72</v>
       </c>
-      <c r="BU4" s="24">
+      <c r="AQ4" s="24">
         <v>4573</v>
       </c>
-      <c r="BV4" s="23">
+      <c r="AR4" s="23">
         <v>7.2723382536366201E-3</v>
       </c>
-      <c r="BW4" s="21"/>
-      <c r="BX4" s="22">
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="22">
         <v>0.60417248985265604</v>
       </c>
-      <c r="BY4" s="21"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4">
+      <c r="AU4" s="21"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4">
         <v>13000</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="13">
@@ -2135,93 +1971,67 @@
       <c r="AC5" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="64">
-        <f>SUM(AH5:BJ5)</f>
-        <v>1</v>
-      </c>
-      <c r="BL5" s="67" t="s">
+      <c r="AD5" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="109">
+        <v>732497</v>
+      </c>
+      <c r="AF5" s="109">
+        <v>936659</v>
+      </c>
+      <c r="AG5" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="BM5" s="28">
+      <c r="AH5" s="28">
         <v>1223</v>
       </c>
-      <c r="BN5" s="28">
+      <c r="AI5" s="28">
         <v>758301</v>
       </c>
-      <c r="BO5" s="27">
-        <f>BN5*BM5</f>
+      <c r="AJ5" s="27">
+        <f>AI5*AH5</f>
         <v>927402123</v>
       </c>
-      <c r="BP5" s="28">
+      <c r="AK5" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL5" s="28">
         <v>936659</v>
       </c>
-      <c r="BQ5" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="26">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="25">
+      <c r="AM5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="25">
         <v>108</v>
       </c>
-      <c r="BU5" s="24">
+      <c r="AQ5" s="24">
         <v>786</v>
       </c>
-      <c r="BV5" s="23">
+      <c r="AR5" s="23">
         <v>0.117022368905601</v>
       </c>
-      <c r="BW5" s="21"/>
-      <c r="BX5" s="22">
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="22">
         <v>0.89261985747947103</v>
       </c>
-      <c r="BY5" s="21"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5">
+      <c r="AU5" s="21"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5">
         <v>11000</v>
       </c>
+      <c r="BA5" s="116" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
@@ -2272,90 +2082,64 @@
         <v>75</v>
       </c>
       <c r="AC6" s="33"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="14"/>
-      <c r="BG6" s="14"/>
-      <c r="BH6" s="14"/>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="14">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="64">
-        <f>SUM(AH6:BJ6)</f>
-        <v>1</v>
-      </c>
-      <c r="BL6" s="67" t="s">
+      <c r="AD6" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="109">
+        <v>732497</v>
+      </c>
+      <c r="AF6" s="109">
+        <v>936659</v>
+      </c>
+      <c r="AG6" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="BM6" s="28">
+      <c r="AH6" s="28">
         <v>1223</v>
       </c>
-      <c r="BN6" s="28">
+      <c r="AI6" s="28">
         <v>758301</v>
       </c>
-      <c r="BO6" s="27">
-        <f>BN6*BM6</f>
+      <c r="AJ6" s="27">
+        <f>AI6*AH6</f>
         <v>927402123</v>
       </c>
-      <c r="BP6" s="28">
+      <c r="AK6" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL6" s="28">
         <v>936659</v>
       </c>
-      <c r="BQ6" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="26">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="25">
+      <c r="AM6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="25">
         <v>46</v>
       </c>
-      <c r="BU6" s="24">
+      <c r="AQ6" s="24">
         <v>1657</v>
       </c>
-      <c r="BV6">
+      <c r="AR6">
         <v>1.3540084688371701E-2</v>
       </c>
-      <c r="BW6" s="21"/>
-      <c r="BX6">
+      <c r="AS6" s="21"/>
+      <c r="AT6">
         <v>0.49994343438832101</v>
       </c>
-      <c r="BY6" s="21"/>
-      <c r="CC6" s="20"/>
+      <c r="AU6" s="21"/>
+      <c r="AY6" s="20"/>
+      <c r="BA6" s="115" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="13"/>
@@ -2400,137 +2184,65 @@
         <v>77</v>
       </c>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="66">
-        <f>SUM(AH7:BJ7)</f>
-        <v>13</v>
-      </c>
-      <c r="BL7" s="67" t="s">
+      <c r="AD7" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="109">
+        <v>732497</v>
+      </c>
+      <c r="AF7" s="109">
+        <v>936659</v>
+      </c>
+      <c r="AG7" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="BM7" s="28">
+      <c r="AH7" s="28">
         <v>589</v>
       </c>
-      <c r="BN7" s="28">
+      <c r="AI7" s="28">
         <v>758301</v>
       </c>
-      <c r="BO7" s="27">
-        <f>BN7*BM7</f>
+      <c r="AJ7" s="27">
+        <f>AI7*AH7</f>
         <v>446639289</v>
       </c>
-      <c r="BP7" s="28">
+      <c r="AK7" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" s="28">
         <v>936659</v>
       </c>
-      <c r="BQ7" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="26">
-        <v>1</v>
-      </c>
-      <c r="BT7">
+      <c r="AM7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP7">
         <v>100</v>
       </c>
-      <c r="BU7">
+      <c r="AQ7">
         <v>4282</v>
       </c>
-      <c r="BV7">
+      <c r="AR7">
         <v>1.0149866170514299E-2</v>
       </c>
-      <c r="BW7" s="21"/>
-      <c r="BX7">
+      <c r="AS7" s="21"/>
+      <c r="AT7">
         <v>0.52838424359800396</v>
       </c>
-      <c r="BY7" s="21"/>
-      <c r="CC7" s="20"/>
+      <c r="AU7" s="21"/>
+      <c r="AY7" s="20"/>
+      <c r="BA7" s="115" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
-        <v>90</v>
+    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -2574,65 +2286,40 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="33"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="71"/>
-      <c r="AX8" s="71"/>
-      <c r="AY8" s="71"/>
-      <c r="AZ8" s="71"/>
-      <c r="BA8" s="71"/>
-      <c r="BB8" s="71"/>
-      <c r="BC8" s="71"/>
-      <c r="BD8" s="71"/>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="71"/>
-      <c r="BG8" s="71"/>
-      <c r="BH8" s="71"/>
-      <c r="BI8" s="71"/>
-      <c r="BJ8" s="71"/>
-      <c r="BK8" s="65"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="28"/>
-      <c r="BN8" s="28"/>
-      <c r="BO8" s="27"/>
-      <c r="BP8" s="28">
+      <c r="AD8" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="109">
+        <v>732497</v>
+      </c>
+      <c r="AF8" s="109">
         <v>936659</v>
       </c>
-      <c r="BQ8" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="26"/>
-      <c r="BT8" s="25"/>
-      <c r="BU8" s="24"/>
-      <c r="BV8" s="23"/>
-      <c r="BW8" s="21"/>
-      <c r="BX8" s="22"/>
-      <c r="BY8" s="21"/>
-      <c r="CC8" s="20"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="27"/>
+      <c r="AL8" s="28">
+        <v>936659</v>
+      </c>
+      <c r="AM8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="21"/>
+      <c r="AY8" s="20"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
-        <v>91</v>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>90</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -2678,25 +2365,31 @@
       <c r="AC9" s="70">
         <v>0.3</v>
       </c>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="28"/>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="28">
+      <c r="AD9" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="109">
+        <v>732497</v>
+      </c>
+      <c r="AF9" s="109">
         <v>936659</v>
       </c>
-      <c r="BQ9" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR9" s="28" t="b">
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="27"/>
+      <c r="AL9" s="28">
+        <v>936659</v>
+      </c>
+      <c r="AM9" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="13"/>
@@ -2747,15 +2440,27 @@
       <c r="AC10" s="70">
         <v>0.5</v>
       </c>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="BL10" s="67" t="s">
-        <v>92</v>
+      <c r="AD10" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="109">
+        <v>732497</v>
+      </c>
+      <c r="AF10" s="109">
+        <v>936659</v>
+      </c>
+      <c r="AG10" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK10" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="13"/>
@@ -2808,329 +2513,122 @@
       <c r="AC11" s="33">
         <v>0.4</v>
       </c>
-      <c r="AD11" s="100">
+      <c r="AD11" s="74">
         <v>2</v>
       </c>
-      <c r="AE11" s="102">
+      <c r="AE11" s="109">
         <v>732497</v>
       </c>
-      <c r="AF11" s="102">
+      <c r="AF11" s="109">
         <v>936659</v>
       </c>
-      <c r="AG11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="30">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="30">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="30">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="30">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="30">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="30">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="30">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="30">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="30">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="29">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="29">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="29">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="65">
-        <f>SUM(AH11:BJ11)</f>
-        <v>13</v>
-      </c>
-      <c r="BL11" s="67" t="s">
+      <c r="AG11" s="67" t="s">
         <v>87</v>
       </c>
+      <c r="AK11" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="H12" t="s">
-        <v>89</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7">
+        <v>3</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="14">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="14"/>
-      <c r="BK12" s="64">
-        <f>SUM(AH12:BJ12)</f>
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="AD12" s="110">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="109">
+        <v>732497</v>
+      </c>
+      <c r="AF12" s="109">
+        <v>936659</v>
+      </c>
+      <c r="AG12" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="14">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="64">
-        <f>SUM(AH13:BJ13)</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="66">
-        <f>SUM(AH14:BJ14)</f>
-        <v>13</v>
-      </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-    </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-    </row>
-    <row r="17" spans="31:32" x14ac:dyDescent="0.25">
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="AD11:AD14"/>
-    <mergeCell ref="AE11:AE17"/>
-    <mergeCell ref="AF11:AF17"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD4:AD10"/>
-    <mergeCell ref="AE4:AE10"/>
-    <mergeCell ref="AF4:AF10"/>
+  <mergeCells count="16">
+    <mergeCell ref="AH1:AY1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AY2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:AA2"/>
-    <mergeCell ref="BM1:CC1"/>
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="AC1:BK1"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:CC2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AS2"/>
-    <mergeCell ref="AT2:BE2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3140,6 +2638,719 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA249011-D726-47B3-9440-8B01236A4F88}">
+  <dimension ref="A1:AH10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="101"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="45">
+        <v>1</v>
+      </c>
+      <c r="F2" s="45">
+        <v>2</v>
+      </c>
+      <c r="G2" s="45">
+        <v>3</v>
+      </c>
+      <c r="H2" s="45">
+        <v>4</v>
+      </c>
+      <c r="I2" s="45">
+        <v>5</v>
+      </c>
+      <c r="J2" s="45">
+        <v>6</v>
+      </c>
+      <c r="K2" s="45">
+        <v>7</v>
+      </c>
+      <c r="L2" s="45">
+        <v>8</v>
+      </c>
+      <c r="M2" s="45">
+        <v>9</v>
+      </c>
+      <c r="N2" s="45">
+        <v>10</v>
+      </c>
+      <c r="O2" s="45">
+        <v>11</v>
+      </c>
+      <c r="P2" s="45">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="44">
+        <v>1</v>
+      </c>
+      <c r="R2" s="44">
+        <v>2</v>
+      </c>
+      <c r="S2" s="44">
+        <v>3</v>
+      </c>
+      <c r="T2" s="44">
+        <v>4</v>
+      </c>
+      <c r="U2" s="44">
+        <v>5</v>
+      </c>
+      <c r="V2" s="44">
+        <v>6</v>
+      </c>
+      <c r="W2" s="44">
+        <v>7</v>
+      </c>
+      <c r="X2" s="44">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="44">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="44">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="44">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="44">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="43">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="43">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="42">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="84"/>
+    </row>
+    <row r="3" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79">
+        <v>1</v>
+      </c>
+      <c r="B3" s="79">
+        <v>732497</v>
+      </c>
+      <c r="C3" s="79">
+        <v>936659</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31">
+        <v>1</v>
+      </c>
+      <c r="L3" s="31">
+        <v>1</v>
+      </c>
+      <c r="M3" s="31">
+        <v>1</v>
+      </c>
+      <c r="N3" s="31">
+        <v>1</v>
+      </c>
+      <c r="O3" s="31">
+        <v>1</v>
+      </c>
+      <c r="P3" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>0</v>
+      </c>
+      <c r="R3" s="30">
+        <v>0</v>
+      </c>
+      <c r="S3" s="30">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30">
+        <v>0</v>
+      </c>
+      <c r="U3" s="30">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
+        <v>0</v>
+      </c>
+      <c r="X3" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="65">
+        <f>SUM(E3:AG3)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="64">
+        <f>SUM(E4:AG4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="64">
+        <f>SUM(E5:AG5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="66">
+        <f>SUM(E6:AG6)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111">
+        <v>2</v>
+      </c>
+      <c r="B7" s="79">
+        <v>732497</v>
+      </c>
+      <c r="C7" s="79">
+        <v>936659</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="31">
+        <v>1</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
+      <c r="O7" s="31">
+        <v>1</v>
+      </c>
+      <c r="P7" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>1</v>
+      </c>
+      <c r="R7" s="30">
+        <v>1</v>
+      </c>
+      <c r="S7" s="30">
+        <v>1</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
+        <v>0</v>
+      </c>
+      <c r="W7" s="30">
+        <v>0</v>
+      </c>
+      <c r="X7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="65">
+        <f>SUM(E7:AG7)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="64">
+        <f>SUM(E8:AG8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="112"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="64">
+        <f>SUM(E9:AG9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="66">
+        <f>SUM(E10:AG10)</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB7AE08-BA0F-45FB-9FBD-880C567EFAE3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -3172,10 +3383,10 @@
       <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="73">
         <v>49.272089999999999</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>47.892699999999998</v>
       </c>
       <c r="D2">
@@ -3186,10 +3397,10 @@
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="73">
         <v>50.511850000000003</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="71">
         <v>48.290579999999999</v>
       </c>
       <c r="D3">
@@ -3200,10 +3411,10 @@
       <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="73">
         <v>51.311700000000002</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="71">
         <v>48.374780000000001</v>
       </c>
       <c r="D4">
@@ -3214,10 +3425,10 @@
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="73">
         <v>50.791759999999996</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <v>48.865299999999998</v>
       </c>
       <c r="D5">
@@ -3228,10 +3439,10 @@
       <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="73">
         <v>49.991880000000002</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="71">
         <v>49.033700000000003</v>
       </c>
       <c r="D6">
@@ -3242,10 +3453,10 @@
       <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="72">
         <v>51.111660000000001</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="71">
         <v>49.35369</v>
       </c>
       <c r="D7">
@@ -3256,10 +3467,10 @@
       <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="72">
         <v>51.791530000000002</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>49.023130000000002</v>
       </c>
       <c r="D8">
@@ -3270,10 +3481,10 @@
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="72">
         <v>52.67136</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="71">
         <v>49.103110000000001</v>
       </c>
       <c r="D9">
@@ -3284,10 +3495,10 @@
       <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="72">
         <v>53.351230000000001</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="71">
         <v>48.94097</v>
       </c>
       <c r="D10">
@@ -3298,10 +3509,10 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="72">
         <v>52.711320000000001</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <v>48.174610000000001</v>
       </c>
       <c r="D11">

--- a/Exp_colectivo/registro_experimento.xlsx
+++ b/Exp_colectivo/registro_experimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Exp_colectivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46A3A2-5D7E-4442-88FE-F55D5C1F2B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0524A72E-5D20-4D51-8DD0-60B2982D019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
+    <workbookView xWindow="12870" yWindow="2040" windowWidth="21600" windowHeight="11145" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
@@ -843,7 +843,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1040,7 +1040,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,7 +1091,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,36 +1112,14 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,28 +1131,12 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1458,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,6 +1508,7 @@
     <col min="48" max="49" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1518,147 +1517,147 @@
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="59"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="82"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="97"/>
       <c r="AB1" s="58"/>
-      <c r="AC1" s="92" t="s">
+      <c r="AC1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="98"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="57"/>
-      <c r="AH1" s="92" t="s">
+      <c r="AH1" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="94"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="85"/>
     </row>
     <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="90" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="91" t="s">
+      <c r="P2" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
       <c r="AB2" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="83" t="s">
+      <c r="AC2" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="101" t="s">
+      <c r="AD2" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="107" t="s">
+      <c r="AE2" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="AF2" s="107" t="s">
+      <c r="AF2" s="93" t="s">
         <v>80</v>
       </c>
       <c r="AG2" s="63"/>
-      <c r="AH2" s="102" t="s">
+      <c r="AH2" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="113" t="s">
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="46" t="s">
         <v>64</v>
       </c>
       <c r="AL2" s="46"/>
-      <c r="AM2" s="99" t="s">
+      <c r="AM2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="99" t="s">
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="102" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="96"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="92"/>
       <c r="BA2" t="s">
         <v>64</v>
       </c>
@@ -1744,10 +1743,10 @@
         <v>22</v>
       </c>
       <c r="AB3" s="47"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
       <c r="AG3" s="55" t="s">
         <v>64</v>
       </c>
@@ -1864,10 +1863,10 @@
       <c r="AD4" s="75">
         <v>1</v>
       </c>
-      <c r="AE4" s="109">
+      <c r="AE4" s="79">
         <v>732497</v>
       </c>
-      <c r="AF4" s="109">
+      <c r="AF4" s="79">
         <v>936659</v>
       </c>
       <c r="AG4" s="67"/>
@@ -1881,7 +1880,7 @@
         <f>AI4*AH4</f>
         <v>927402123</v>
       </c>
-      <c r="AK4" s="114"/>
+      <c r="AK4" s="28"/>
       <c r="AL4" s="28">
         <v>936659</v>
       </c>
@@ -1974,10 +1973,10 @@
       <c r="AD5" s="75">
         <v>1</v>
       </c>
-      <c r="AE5" s="109">
+      <c r="AE5" s="79">
         <v>732497</v>
       </c>
-      <c r="AF5" s="109">
+      <c r="AF5" s="79">
         <v>936659</v>
       </c>
       <c r="AG5" s="67" t="s">
@@ -1993,7 +1992,7 @@
         <f>AI5*AH5</f>
         <v>927402123</v>
       </c>
-      <c r="AK5" s="116" t="s">
+      <c r="AK5" s="82" t="s">
         <v>95</v>
       </c>
       <c r="AL5" s="28">
@@ -2026,7 +2025,7 @@
       <c r="AZ5">
         <v>11000</v>
       </c>
-      <c r="BA5" s="116" t="s">
+      <c r="BA5" s="82" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2085,10 +2084,10 @@
       <c r="AD6" s="75">
         <v>1</v>
       </c>
-      <c r="AE6" s="109">
+      <c r="AE6" s="79">
         <v>732497</v>
       </c>
-      <c r="AF6" s="109">
+      <c r="AF6" s="79">
         <v>936659</v>
       </c>
       <c r="AG6" s="67" t="s">
@@ -2104,7 +2103,7 @@
         <f>AI6*AH6</f>
         <v>927402123</v>
       </c>
-      <c r="AK6" s="116" t="s">
+      <c r="AK6" s="82" t="s">
         <v>96</v>
       </c>
       <c r="AL6" s="28">
@@ -2134,7 +2133,7 @@
       </c>
       <c r="AU6" s="21"/>
       <c r="AY6" s="20"/>
-      <c r="BA6" s="115" t="s">
+      <c r="BA6" s="82" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2187,10 +2186,10 @@
       <c r="AD7" s="75">
         <v>1</v>
       </c>
-      <c r="AE7" s="109">
+      <c r="AE7" s="79">
         <v>732497</v>
       </c>
-      <c r="AF7" s="109">
+      <c r="AF7" s="79">
         <v>936659</v>
       </c>
       <c r="AG7" s="67" t="s">
@@ -2206,7 +2205,7 @@
         <f>AI7*AH7</f>
         <v>446639289</v>
       </c>
-      <c r="AK7" s="116" t="s">
+      <c r="AK7" s="82" t="s">
         <v>97</v>
       </c>
       <c r="AL7" s="28">
@@ -2236,7 +2235,7 @@
       </c>
       <c r="AU7" s="21"/>
       <c r="AY7" s="20"/>
-      <c r="BA7" s="115" t="s">
+      <c r="BA7" s="82" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2289,10 +2288,10 @@
       <c r="AD8" s="75">
         <v>1</v>
       </c>
-      <c r="AE8" s="109">
+      <c r="AE8" s="79">
         <v>732497</v>
       </c>
-      <c r="AF8" s="109">
+      <c r="AF8" s="79">
         <v>936659</v>
       </c>
       <c r="AG8" s="67"/>
@@ -2368,10 +2367,10 @@
       <c r="AD9" s="75">
         <v>1</v>
       </c>
-      <c r="AE9" s="109">
+      <c r="AE9" s="79">
         <v>732497</v>
       </c>
-      <c r="AF9" s="109">
+      <c r="AF9" s="79">
         <v>936659</v>
       </c>
       <c r="AG9" s="67"/>
@@ -2443,16 +2442,16 @@
       <c r="AD10" s="75">
         <v>1</v>
       </c>
-      <c r="AE10" s="109">
+      <c r="AE10" s="79">
         <v>732497</v>
       </c>
-      <c r="AF10" s="109">
+      <c r="AF10" s="79">
         <v>936659</v>
       </c>
       <c r="AG10" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AK10" s="115" t="s">
+      <c r="AK10" s="81" t="s">
         <v>94</v>
       </c>
       <c r="BA10" t="s">
@@ -2516,19 +2515,19 @@
       <c r="AD11" s="74">
         <v>2</v>
       </c>
-      <c r="AE11" s="109">
+      <c r="AE11" s="79">
         <v>732497</v>
       </c>
-      <c r="AF11" s="109">
+      <c r="AF11" s="79">
         <v>936659</v>
       </c>
       <c r="AG11" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="AK11" s="115" t="s">
+      <c r="AK11" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BA11" s="82" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2583,22 +2582,22 @@
       <c r="AB12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AD12" s="110">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="109">
+      <c r="AD12" s="80">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="79">
         <v>732497</v>
       </c>
-      <c r="AF12" s="109">
+      <c r="AF12" s="79">
         <v>936659</v>
       </c>
       <c r="AG12" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK12" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BA12" s="81" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2613,6 +2612,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:AA2"/>
     <mergeCell ref="AH1:AY1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AM2:AN2"/>
@@ -2622,13 +2628,6 @@
     <mergeCell ref="AQ2:AY2"/>
     <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:AA2"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2648,62 +2647,62 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="106" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="95" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="97" t="s">
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="107" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="104"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="45">
         <v>1</v>
       </c>
@@ -2791,16 +2790,16 @@
       <c r="AG2" s="42">
         <v>5</v>
       </c>
-      <c r="AH2" s="84"/>
+      <c r="AH2" s="91"/>
     </row>
     <row r="3" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79">
-        <v>1</v>
-      </c>
-      <c r="B3" s="79">
+      <c r="A3" s="108">
+        <v>1</v>
+      </c>
+      <c r="B3" s="108">
         <v>732497</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="108">
         <v>936659</v>
       </c>
       <c r="D3" s="32" t="s">
@@ -2882,14 +2881,14 @@
       <c r="AF3" s="29"/>
       <c r="AG3" s="29"/>
       <c r="AH3" s="65">
-        <f>SUM(E3:AG3)</f>
+        <f t="shared" ref="AH3:AH10" si="0">SUM(E3:AG3)</f>
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2925,14 +2924,14 @@
       </c>
       <c r="AG4" s="14"/>
       <c r="AH4" s="64">
-        <f>SUM(E4:AG4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
@@ -2968,14 +2967,14 @@
         <v>1</v>
       </c>
       <c r="AH5" s="64">
-        <f>SUM(E5:AG5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -3057,18 +3056,18 @@
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="66">
-        <f>SUM(E6:AG6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111">
+      <c r="A7" s="113">
         <v>2</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="108">
         <v>732497</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="108">
         <v>936659</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -3150,14 +3149,14 @@
       <c r="AF7" s="29"/>
       <c r="AG7" s="29"/>
       <c r="AH7" s="65">
-        <f>SUM(E7:AG7)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="17" t="s">
         <v>4</v>
       </c>
@@ -3193,14 +3192,14 @@
       </c>
       <c r="AG8" s="14"/>
       <c r="AH8" s="64">
-        <f>SUM(E8:AG8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="17" t="s">
         <v>2</v>
       </c>
@@ -3236,14 +3235,14 @@
         <v>1</v>
       </c>
       <c r="AH9" s="64">
-        <f>SUM(E9:AG9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="5" t="s">
         <v>1</v>
       </c>
@@ -3325,23 +3324,23 @@
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="66">
-        <f>SUM(E10:AG10)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="Q1:AB1"/>

--- a/Exp_colectivo/registro_experimento.xlsx
+++ b/Exp_colectivo/registro_experimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Exp_colectivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0524A72E-5D20-4D51-8DD0-60B2982D019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780AE68A-BF2F-4F6D-A3E2-017B137335E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="2040" windowWidth="21600" windowHeight="11145" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
+    <workbookView xWindow="-2850" yWindow="2565" windowWidth="21600" windowHeight="11145" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
+    <comment ref="AR3" authorId="0" shapeId="0" xr:uid="{890DDD5D-7F8E-418C-B456-5C661654CF84}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>AD5</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>ZZ9420AD1</t>
+  </si>
+  <si>
+    <t>filas</t>
+  </si>
+  <si>
+    <t>col</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,14 +518,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,11 +612,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -837,13 +844,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,9 +1036,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,8 +1048,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,11 +1145,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1454,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AW12" sqref="AW12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BC10" sqref="BC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,30 +1501,32 @@
     <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" customWidth="1"/>
-    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" customWidth="1"/>
-    <col min="38" max="38" width="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" customWidth="1"/>
+    <col min="40" max="40" width="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>63</v>
       </c>
@@ -1550,12 +1565,12 @@
       <c r="AD1" s="86"/>
       <c r="AE1" s="86"/>
       <c r="AF1" s="86"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="83" t="s">
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
       <c r="AK1" s="84"/>
       <c r="AL1" s="84"/>
       <c r="AM1" s="84"/>
@@ -1570,9 +1585,11 @@
       <c r="AV1" s="84"/>
       <c r="AW1" s="84"/>
       <c r="AX1" s="84"/>
-      <c r="AY1" s="85"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="85"/>
     </row>
-    <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -1623,46 +1640,48 @@
       <c r="AD2" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="93" t="s">
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="AF2" s="93" t="s">
+      <c r="AH2" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="90" t="s">
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="46" t="s">
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="87" t="s">
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="87" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="90" t="s">
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
       <c r="AT2" s="91"/>
       <c r="AU2" s="91"/>
       <c r="AV2" s="91"/>
       <c r="AW2" s="91"/>
       <c r="AX2" s="91"/>
-      <c r="AY2" s="92"/>
-      <c r="BA2" t="s">
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="92"/>
+      <c r="BC2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>44</v>
       </c>
@@ -1745,68 +1764,74 @@
       <c r="AB3" s="47"/>
       <c r="AC3" s="91"/>
       <c r="AD3" s="89"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="55" t="s">
+      <c r="AE3" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF3" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="41" t="s">
+      <c r="AJ3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="41" t="s">
+      <c r="AK3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" s="40" t="s">
+      <c r="AL3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="68" t="s">
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="AM3" s="41" t="s">
+      <c r="AO3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AN3" s="68" t="s">
+      <c r="AP3" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AO3" s="39" t="s">
+      <c r="AQ3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AP3" s="38" t="s">
+      <c r="AR3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AQ3" s="37" t="s">
+      <c r="AS3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AR3" s="36" t="s">
+      <c r="AT3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="36" t="s">
+      <c r="AU3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="36" t="s">
+      <c r="AV3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AU3" s="36" t="s">
+      <c r="AW3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AV3" s="36" t="s">
+      <c r="AX3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AW3" s="36" t="s">
+      <c r="AY3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AX3" s="36" t="s">
+      <c r="AZ3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" s="35" t="s">
+      <c r="BA3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="69" t="s">
+      <c r="BB3" s="69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>81</v>
       </c>
@@ -1863,57 +1888,59 @@
       <c r="AD4" s="75">
         <v>1</v>
       </c>
-      <c r="AE4" s="79">
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="78">
         <v>732497</v>
       </c>
-      <c r="AF4" s="79">
+      <c r="AH4" s="78">
         <v>936659</v>
       </c>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="28">
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="28">
         <v>1223</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="AK4" s="28">
         <v>758301</v>
       </c>
-      <c r="AJ4" s="27">
-        <f>AI4*AH4</f>
+      <c r="AL4" s="27">
+        <f>AK4*AJ4</f>
         <v>927402123</v>
       </c>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28">
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28">
         <v>936659</v>
       </c>
-      <c r="AM4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="26">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="25">
+      <c r="AO4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="25">
         <v>72</v>
       </c>
-      <c r="AQ4" s="24">
+      <c r="AS4" s="24">
         <v>4573</v>
       </c>
-      <c r="AR4" s="23">
+      <c r="AT4" s="23">
         <v>7.2723382536366201E-3</v>
       </c>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="22">
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="22">
         <v>0.60417248985265604</v>
       </c>
-      <c r="AU4" s="21"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4">
+      <c r="AW4" s="21"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4">
         <v>13000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="13">
@@ -1973,64 +2000,66 @@
       <c r="AD5" s="75">
         <v>1</v>
       </c>
-      <c r="AE5" s="79">
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="78">
         <v>732497</v>
       </c>
-      <c r="AF5" s="79">
+      <c r="AH5" s="78">
         <v>936659</v>
       </c>
-      <c r="AG5" s="67" t="s">
+      <c r="AI5" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AJ5" s="28">
         <v>1223</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="AK5" s="28">
         <v>758301</v>
       </c>
-      <c r="AJ5" s="27">
-        <f>AI5*AH5</f>
+      <c r="AL5" s="27">
+        <f>AK5*AJ5</f>
         <v>927402123</v>
       </c>
-      <c r="AK5" s="82" t="s">
+      <c r="AM5" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="AL5" s="28">
+      <c r="AN5" s="28">
         <v>936659</v>
       </c>
-      <c r="AM5" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="26">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="25">
+      <c r="AO5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="25">
         <v>108</v>
       </c>
-      <c r="AQ5" s="24">
+      <c r="AS5" s="24">
         <v>786</v>
       </c>
-      <c r="AR5" s="23">
+      <c r="AT5" s="23">
         <v>0.117022368905601</v>
       </c>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="22">
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="22">
         <v>0.89261985747947103</v>
       </c>
-      <c r="AU5" s="21"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5">
+      <c r="AW5" s="21"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5">
         <v>11000</v>
       </c>
-      <c r="BA5" s="82" t="s">
+      <c r="BC5" s="80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
@@ -2084,61 +2113,63 @@
       <c r="AD6" s="75">
         <v>1</v>
       </c>
-      <c r="AE6" s="79">
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="78">
         <v>732497</v>
       </c>
-      <c r="AF6" s="79">
+      <c r="AH6" s="78">
         <v>936659</v>
       </c>
-      <c r="AG6" s="67" t="s">
+      <c r="AI6" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="AH6" s="28">
+      <c r="AJ6" s="28">
         <v>1223</v>
       </c>
-      <c r="AI6" s="28">
+      <c r="AK6" s="28">
         <v>758301</v>
       </c>
-      <c r="AJ6" s="27">
-        <f>AI6*AH6</f>
+      <c r="AL6" s="27">
+        <f>AK6*AJ6</f>
         <v>927402123</v>
       </c>
-      <c r="AK6" s="82" t="s">
+      <c r="AM6" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="AL6" s="28">
+      <c r="AN6" s="28">
         <v>936659</v>
       </c>
-      <c r="AM6" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="26">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="25">
+      <c r="AO6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="25">
         <v>46</v>
       </c>
-      <c r="AQ6" s="24">
+      <c r="AS6" s="24">
         <v>1657</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>1.3540084688371701E-2</v>
       </c>
-      <c r="AS6" s="21"/>
-      <c r="AT6">
+      <c r="AU6" s="21"/>
+      <c r="AV6">
         <v>0.49994343438832101</v>
       </c>
-      <c r="AU6" s="21"/>
-      <c r="AY6" s="20"/>
-      <c r="BA6" s="82" t="s">
+      <c r="AW6" s="21"/>
+      <c r="BA6" s="20"/>
+      <c r="BC6" s="80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="13"/>
@@ -2186,61 +2217,63 @@
       <c r="AD7" s="75">
         <v>1</v>
       </c>
-      <c r="AE7" s="79">
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="78">
         <v>732497</v>
       </c>
-      <c r="AF7" s="79">
+      <c r="AH7" s="78">
         <v>936659</v>
       </c>
-      <c r="AG7" s="67" t="s">
+      <c r="AI7" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AH7" s="28">
+      <c r="AJ7" s="28">
         <v>589</v>
       </c>
-      <c r="AI7" s="28">
+      <c r="AK7" s="28">
         <v>758301</v>
       </c>
-      <c r="AJ7" s="27">
-        <f>AI7*AH7</f>
+      <c r="AL7" s="27">
+        <f>AK7*AJ7</f>
         <v>446639289</v>
       </c>
-      <c r="AK7" s="82" t="s">
+      <c r="AM7" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AL7" s="28">
+      <c r="AN7" s="28">
         <v>936659</v>
       </c>
-      <c r="AM7" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="26">
-        <v>1</v>
-      </c>
-      <c r="AP7">
+      <c r="AO7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR7">
         <v>100</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>4282</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>1.0149866170514299E-2</v>
       </c>
-      <c r="AS7" s="21"/>
-      <c r="AT7">
+      <c r="AU7" s="21"/>
+      <c r="AV7">
         <v>0.52838424359800396</v>
       </c>
-      <c r="AU7" s="21"/>
-      <c r="AY7" s="20"/>
-      <c r="BA7" s="82" t="s">
+      <c r="AW7" s="21"/>
+      <c r="BA7" s="20"/>
+      <c r="BC7" s="80" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+    <row r="8" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="13"/>
@@ -2288,36 +2321,38 @@
       <c r="AD8" s="75">
         <v>1</v>
       </c>
-      <c r="AE8" s="79">
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="78">
         <v>732497</v>
       </c>
-      <c r="AF8" s="79">
+      <c r="AH8" s="78">
         <v>936659</v>
       </c>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="27"/>
-      <c r="AL8" s="28">
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="27"/>
+      <c r="AN8" s="28">
         <v>936659</v>
       </c>
-      <c r="AM8" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="22"/>
+      <c r="AO8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="23"/>
       <c r="AU8" s="21"/>
-      <c r="AY8" s="20"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="21"/>
+      <c r="BA8" s="20"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="13"/>
@@ -2367,28 +2402,30 @@
       <c r="AD9" s="75">
         <v>1</v>
       </c>
-      <c r="AE9" s="79">
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="78">
         <v>732497</v>
       </c>
-      <c r="AF9" s="79">
+      <c r="AH9" s="78">
         <v>936659</v>
       </c>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="27"/>
-      <c r="AL9" s="28">
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="27"/>
+      <c r="AN9" s="28">
         <v>936659</v>
       </c>
-      <c r="AM9" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="28" t="b">
+      <c r="AO9" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="13"/>
@@ -2442,24 +2479,35 @@
       <c r="AD10" s="75">
         <v>1</v>
       </c>
-      <c r="AE10" s="79">
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="78">
         <v>732497</v>
       </c>
-      <c r="AF10" s="79">
+      <c r="AH10" s="78">
         <v>936659</v>
       </c>
-      <c r="AG10" s="67" t="s">
+      <c r="AI10" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AK10" s="81" t="s">
+      <c r="AM10" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="AN10" s="28">
+        <v>936659</v>
+      </c>
+      <c r="AO10" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="13"/>
@@ -2515,24 +2563,35 @@
       <c r="AD11" s="74">
         <v>2</v>
       </c>
-      <c r="AE11" s="79">
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="78">
         <v>732497</v>
       </c>
-      <c r="AF11" s="79">
+      <c r="AH11" s="78">
         <v>936659</v>
       </c>
-      <c r="AG11" s="67" t="s">
+      <c r="AI11" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="AK11" s="82" t="s">
+      <c r="AM11" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="BA11" s="82" t="s">
+      <c r="AN11" s="28">
+        <v>936659</v>
+      </c>
+      <c r="AO11" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
         <v>88</v>
       </c>
       <c r="B12" s="13"/>
@@ -2582,32 +2641,47 @@
       <c r="AB12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AD12" s="80">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="79">
+      <c r="AD12" s="79">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="115">
+        <v>1869958</v>
+      </c>
+      <c r="AF12" s="79">
+        <v>2152</v>
+      </c>
+      <c r="AG12" s="78">
         <v>732497</v>
       </c>
-      <c r="AF12" s="79">
+      <c r="AH12" s="78">
         <v>936659</v>
       </c>
-      <c r="AG12" s="67" t="s">
+      <c r="AI12" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="AK12" s="82" t="s">
+      <c r="AM12" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="BA12" s="81" t="s">
+      <c r="AN12" s="28">
+        <v>936659</v>
+      </c>
+      <c r="AO12" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="80" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
   </sheetData>
@@ -2619,15 +2693,15 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:AA2"/>
-    <mergeCell ref="AH1:AY1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AJ1:BA1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AY2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:BA2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA249011-D726-47B3-9440-8B01236A4F88}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,6 +3420,7 @@
     <mergeCell ref="Q1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3354,7 +3429,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
